--- a/Backlog_Beichtbuchner_Katholnigg_Pirkmann_Pripfl_Rath_Schaar_Zugaj.xlsx
+++ b/Backlog_Beichtbuchner_Katholnigg_Pirkmann_Pripfl_Rath_Schaar_Zugaj.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kiese\Documents\Schule\5AHWIN\LABSPL\SCHR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andre/Desktop/labor/ReAP-Reserve-And-Preorder-G2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E632D8CA-D4CF-4E36-B9C7-F2C5BFA2E72E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C8E241-B017-C140-A420-6AED679EAD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="21680" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="52">
   <si>
     <t>Story-ID</t>
   </si>
@@ -93,19 +88,94 @@
     <t>Every invited person should be able to preorder food and drinks with their individual QR code</t>
   </si>
   <si>
-    <t>APP-04</t>
-  </si>
-  <si>
-    <t>As the cook I want to be able to see orders on a screen and be able to mark them as done</t>
-  </si>
-  <si>
-    <t>When new orders get put into the system, they should directly show up on the screen of the cook, ordered by their delivery date.</t>
-  </si>
-  <si>
-    <t>When an order has to be done in less than 15mins it should start blinking on the screen and at 5mins left it should start blinking faster</t>
-  </si>
-  <si>
-    <t>When the cook is done with an order, he should have the ability to mark an order as done and send them out to the waiters</t>
+    <t>APP-05</t>
+  </si>
+  <si>
+    <t>As a waiter, I want to see which tables are currently occupied and which orders are pending, so that I can serve customers efficiently</t>
+  </si>
+  <si>
+    <t>The waiter app should display a visual map of the restaurant layout showing all tables with their current status (free, occupied, reserved)</t>
+  </si>
+  <si>
+    <t>Each table should show pending orders that need to be delivered, with the ability to mark items as served</t>
+  </si>
+  <si>
+    <t>The waiter should receive notifications when new orders are ready in the kitchen or when customers request service via the app</t>
+  </si>
+  <si>
+    <t>APP-06</t>
+  </si>
+  <si>
+    <t>As a customer, I want to be able to modify or cancel my reservation, so that I have flexibility in case my plans change</t>
+  </si>
+  <si>
+    <t>Customers should be able to access their reservation using their QR code or email confirmation and see all reservation details</t>
+  </si>
+  <si>
+    <t>The system should allow modifications to the reservation time, number of guests, or date up to 2 hours before the reservation time</t>
+  </si>
+  <si>
+    <t>If a reservation is cancelled, the table should automatically become available again and the customer should receive a cancellation confirmation</t>
+  </si>
+  <si>
+    <t>APP-07</t>
+  </si>
+  <si>
+    <t>As a customer, I want to view the menu with pictures and descriptions before ordering, so that I can make informed choices</t>
+  </si>
+  <si>
+    <t>The menu should be browsable by categories (appetizers, main courses, desserts, beverages) with high-quality images for each item</t>
+  </si>
+  <si>
+    <t>Each menu item should display allergen information, ingredients, and preparation time</t>
+  </si>
+  <si>
+    <t>Customers should be able to filter menu items by dietary preferences (vegetarian, vegan, gluten-free) and see availability in real-time</t>
+  </si>
+  <si>
+    <t>APP-08</t>
+  </si>
+  <si>
+    <t>As a restaurant owner, I want to manage the menu and pricing dynamically, so that I can update offerings based on availability and seasons</t>
+  </si>
+  <si>
+    <t>The owner dashboard should allow adding, editing, or removing menu items with all details (name, description, price, category, image)</t>
+  </si>
+  <si>
+    <t>Items can be marked as temporarily unavailable without removing them completely from the system</t>
+  </si>
+  <si>
+    <t>The system should track which items are most popular and provide statistics on orders per item</t>
+  </si>
+  <si>
+    <t>APP-09</t>
+  </si>
+  <si>
+    <t>As a customer, I want to add special requests or dietary restrictions to my order, so that the kitchen can accommodate my needs</t>
+  </si>
+  <si>
+    <t>When ordering, customers should have a text field to add notes for each item (e.g., "no onions", "extra spicy", "allergy to nuts")</t>
+  </si>
+  <si>
+    <t>These special requests should be clearly visible on the cook's screen and highlighted if they contain allergy-related keywords</t>
+  </si>
+  <si>
+    <t>The waiter should also see these notes when delivering the order to ensure proper communication with the customer</t>
+  </si>
+  <si>
+    <t>APP-10</t>
+  </si>
+  <si>
+    <t>As a restaurant owner, I want to send automated reminders to customers about their reservations, so that no-shows are reduced</t>
+  </si>
+  <si>
+    <t>The system should automatically send an email and/or SMS reminder 24 hours before the reservation</t>
+  </si>
+  <si>
+    <t>A second reminder should be sent 2 hours before the reservation with a link to confirm or cancel</t>
+  </si>
+  <si>
+    <t>If a customer doesn't confirm their reservation, the table should be marked as potentially available for walk-ins</t>
   </si>
 </sst>
 </file>
@@ -145,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -155,10 +225,20 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -287,21 +367,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5" customWidth="1"/>
     <col min="4" max="6" width="13" customWidth="1"/>
-    <col min="7" max="8" width="13.140625" customWidth="1"/>
+    <col min="7" max="8" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -311,20 +391,20 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="6"/>
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="126.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
@@ -334,20 +414,20 @@
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="90.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:9" ht="91" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -357,20 +437,20 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="G3" s="6"/>
+      <c r="H3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="6"/>
+    </row>
+    <row r="4" spans="1:9" ht="72.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -380,65 +460,195 @@
       <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4" t="s">
+      <c r="G4" s="6"/>
+      <c r="H4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="1:9" ht="56" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4" t="s">
+      <c r="G5" s="6"/>
+      <c r="H5" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="154" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="154" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="140" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H5:I5"/>
+  <mergeCells count="30">
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="D1:E1"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>